--- a/Wine_Quality/outputs/train_40_test_60/depth_2/wq_train_40_test_60_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_2/wq_train_40_test_60_depth_2_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4438642297650131</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4647983595352017</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8246960972488804</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8636515912897822</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8437244313532973</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4579560155239327</v>
+        <v>0.8238600874453467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4621409921671018</v>
+        <v>0.8837520938023451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4600389863547758</v>
+        <v>0.8527557782447066</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7519876891510644</v>
+        <v>0.7637855860477045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7519876891510644</v>
+        <v>0.7637855860477045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7519876891510644</v>
+        <v>0.7637855860477045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7519876891510644</v>
+        <v>0.7637855860477045</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4275507042576043</v>
+        <v>0.4372216551647091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4419308611522947</v>
+        <v>0.4425387745224527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.434587805902691</v>
+        <v>0.4391847125933028</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.721341923103165</v>
+        <v>0.7265660163143692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7519876891510644</v>
+        <v>0.7637855860477045</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7363188743619775</v>
+        <v>0.7441681306654048</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_2/wq_train_40_test_60_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_2/wq_train_40_test_60_depth_2_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.49</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4438642297650131</v>
+        <v>0.44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4647983595352017</v>
+        <v>0.46</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8238600874453467</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8837520938023451</v>
+        <v>0.88</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8527557782447066</v>
+        <v>0.85</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7637855860477045</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7637855860477045</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7637855860477045</v>
+        <v>0.76</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7637855860477045</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4372216551647091</v>
+        <v>0.44</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4425387745224527</v>
+        <v>0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4391847125933028</v>
+        <v>0.44</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7265660163143692</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7637855860477045</v>
+        <v>0.76</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7441681306654048</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
